--- a/samples/direct-mode/excels/subfiles/关卡配置.xlsx
+++ b/samples/direct-mode/excels/subfiles/关卡配置.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2280" windowWidth="30640" windowHeight="16820"/>
+    <workbookView xWindow="4260" yWindow="7380" windowWidth="34400" windowHeight="18200"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>版本：</t>
   </si>
@@ -140,6 +140,13 @@
   </si>
   <si>
     <t>/levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量表：</t>
+  </si>
+  <si>
+    <t>垂直排列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,6 +181,24 @@
       <sz val="9"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -267,50 +292,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -640,210 +672,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="4"/>
-    <col min="3" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="10.83203125" style="4"/>
-    <col min="9" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="16.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="7"/>
+    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="17" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="5">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="7">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+      <c r="K1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="10" t="s">
+      <c r="M1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="17" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="17" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="17" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="11">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12">
+      <c r="C6" s="14">
         <v>1</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="17" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"中文,英文,数字,字符"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/samples/direct-mode/excels/subfiles/关卡配置.xlsx
+++ b/samples/direct-mode/excels/subfiles/关卡配置.xlsx
@@ -675,7 +675,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>

--- a/samples/direct-mode/excels/subfiles/关卡配置.xlsx
+++ b/samples/direct-mode/excels/subfiles/关卡配置.xlsx
@@ -30,12 +30,6 @@
     <t>编号</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -147,6 +141,14 @@
   </si>
   <si>
     <t>垂直排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称:locale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述:locale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,7 +677,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -699,37 +701,37 @@
         <v>100</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7">
         <v>0</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L1" s="7">
         <v>1</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N1" s="7">
         <v>1</v>
@@ -747,13 +749,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="12">
         <v>0</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -761,120 +763,120 @@
     </row>
     <row r="4" spans="1:14" ht="17" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="17" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="17" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="14">
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="17" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="17" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="17" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="17" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="17" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
